--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -40,6 +37,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №42</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,37 +133,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,17 +157,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,82 +488,79 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="5">
+        <v>8700.44</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>43564</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1618.28</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43564</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
         <v>8700.44</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>43564</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>1618.28</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>43564</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7">
-        <v>8700.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43564</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>1618.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>8576.92</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,10 +587,13 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Наименование / садовый участок №42</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2018/2019 на 198 к.дн.</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +174,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +489,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,34 +577,64 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="14">
+        <v>43937</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>8576.92</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="14">
+        <v>43937</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <f>PRODUCT(C7,198,0.001)</f>
+        <v>1698.2301599999998</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="14">
+        <v>43937</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>1183.6099999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(C3:C10)</f>
+        <v>20593.870159999999</v>
+      </c>
+      <c r="D11" s="8">
+        <f>SUM(D3:D10)</f>
+        <v>20079.25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8">
+        <f>SUM(D11,-C11)</f>
+        <v>-514.62015999999858</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>итого</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -614,26 +617,38 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
-        <f>SUM(C3:C10)</f>
-        <v>20593.870159999999</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SUM(D3:D10)</f>
-        <v>20079.25</v>
-      </c>
+      <c r="A11" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9650</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUM(C3:C11)</f>
+        <v>30243.870159999999</v>
+      </c>
       <c r="D12" s="8">
-        <f>SUM(D11,-C11)</f>
-        <v>-514.62015999999858</v>
+        <f>SUM(D3:D11)</f>
+        <v>20079.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
+        <f>SUM(D12,-C12)</f>
+        <v>-10164.620159999999</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,13 +55,22 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2020/2021 на 238 к.дн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +88,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -149,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +198,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,27 +611,27 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="16">
         <v>43937</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="18">
         <f>PRODUCT(C7,198,0.001)</f>
         <v>1698.2301599999998</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>43937</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>1183.6099999999999</v>
       </c>
     </row>
@@ -629,26 +648,62 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14">
+        <v>44343</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44343</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2296.6999999999998</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10290.76</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
-        <f>SUM(C3:C11)</f>
-        <v>30243.870159999999</v>
-      </c>
-      <c r="D12" s="8">
-        <f>SUM(D3:D11)</f>
-        <v>20079.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <f>SUM(D12,-C12)</f>
-        <v>-10164.620159999999</v>
+      <c r="C15" s="8">
+        <f>SUM(C3:C14)</f>
+        <v>42831.330159999998</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM(D3:D14)</f>
+        <v>29729.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
+        <f>SUM(D15,-C15)</f>
+        <v>-13102.080159999998</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -508,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,26 +684,38 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="4">
+        <v>44386</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
+        <v>10290.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <f>SUM(C3:C14)</f>
         <v>42831.330159999998</v>
       </c>
-      <c r="D15" s="8">
-        <f>SUM(D3:D14)</f>
-        <v>29729.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
       <c r="D16" s="8">
-        <f>SUM(D15,-C15)</f>
-        <v>-13102.080159999998</v>
+        <f>SUM(D3:D15)</f>
+        <v>40020.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
+        <f>SUM(D16,-C16)</f>
+        <v>-2811.3201599999957</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,7 +180,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -201,6 +200,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,7 +514,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,10 +528,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -539,7 +542,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -551,34 +554,34 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43564</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1618.28</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43564</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7">
         <v>8700.44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43564</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7"/>
@@ -587,10 +590,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7">
@@ -599,10 +602,10 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43937</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7"/>
@@ -611,23 +614,23 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43937</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>PRODUCT(C7,198,0.001)</f>
         <v>1698.2301599999998</v>
       </c>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43937</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="17"/>
@@ -636,10 +639,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>43952</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="7">
@@ -648,10 +651,10 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>44343</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="7"/>
@@ -660,10 +663,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>44343</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="17">
@@ -672,10 +675,10 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>44317</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7">
@@ -690,30 +693,30 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7">
         <v>10290.76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
-        <f>SUM(C3:C14)</f>
+      <c r="C16" s="7">
+        <f>SUM(C3:C15)</f>
         <v>42831.330159999998</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f>SUM(D3:D15)</f>
         <v>40020.01</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>SUM(D16,-C16)</f>
         <v>-2811.3201599999957</v>
       </c>

--- a/sputnik/personal/uch/uch42.xlsx
+++ b/sputnik/personal/uch/uch42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2020/2021 на 238 к.дн.</t>
+  </si>
+  <si>
+    <t>Аванс членского взноса на 2022</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,8 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -203,6 +210,28 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -542,7 +571,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -554,19 +583,19 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="24">
         <v>43564</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="26">
         <v>1618.28</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>43564</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -578,19 +607,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="27">
         <v>43564</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>1618.28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>43586</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -602,7 +631,7 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>43937</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -614,32 +643,32 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>43937</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <f>PRODUCT(C7,198,0.001)</f>
         <v>1698.2301599999998</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>43937</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>1183.6099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>43952</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -651,7 +680,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>44343</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -663,19 +692,19 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>44343</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>2296.6999999999998</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>44317</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -687,38 +716,62 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="18">
         <v>44386</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7">
         <v>10290.76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="19">
+        <v>44452</v>
+      </c>
       <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15">
+        <v>1698.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>44452</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23">
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
-        <f>SUM(C3:C15)</f>
+      <c r="C18" s="7">
+        <f>SUM(C3:C17)</f>
         <v>42831.330159999998</v>
       </c>
-      <c r="D16" s="7">
-        <f>SUM(D3:D15)</f>
-        <v>40020.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <f>SUM(D16,-C16)</f>
-        <v>-2811.3201599999957</v>
+      <c r="D18" s="7">
+        <f>SUM(D3:D17)</f>
+        <v>54948.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <f>SUM(D18,-C18)</f>
+        <v>12117.079840000006</v>
       </c>
     </row>
   </sheetData>
